--- a/cypress/fixtures/Fal6-Files/Passenger details FAL 6 - invalidCharacters.xlsx
+++ b/cypress/fixtures/Fal6-Files/Passenger details FAL 6 - invalidCharacters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Homeoffice\NMSW\nmsw-ui\cypress\fixtures\Fal6-Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Homeoffice\NMSWTemp\nmsw-ui\cypress\fixtures\Fal6-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E8D0C2-C8A7-4B90-8AE6-D328925647B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05B36DF-BE79-4458-8F68-C1FC76D2E7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="1644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="1651">
   <si>
     <t xml:space="preserve">Your reference (optional). 
 For example, vessel name or voyage number
@@ -5037,6 +5037,27 @@
   </si>
   <si>
     <t>12?</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>/-:'</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>12/12/2025</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>SE STO</t>
   </si>
 </sst>
 </file>
@@ -7063,8 +7084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P981"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" customHeight="1"/>
@@ -7258,21 +7279,49 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="19"/>
+      <c r="A6" s="19" t="s">
+        <v>1644</v>
+      </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
+      <c r="C6" s="19" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D6" s="21">
+        <v>12356</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>1645</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>1647</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>1648</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>1650</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="19"/>
@@ -30419,26 +30468,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18390984-f7d9-4502-80ba-82ec344db5fb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="629dd2dc-abea-47e8-ba88-82202e3ee8ef" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D364DC965387FD4EAF4833DDCF640F91" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c7401bc8bddc44f3d87e6545050f3282">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="18390984-f7d9-4502-80ba-82ec344db5fb" xmlns:ns3="629dd2dc-abea-47e8-ba88-82202e3ee8ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc3cb6a02f8baa81433631181c409fee" ns2:_="" ns3:_="">
     <xsd:import namespace="18390984-f7d9-4502-80ba-82ec344db5fb"/>
@@ -30675,10 +30704,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18390984-f7d9-4502-80ba-82ec344db5fb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="629dd2dc-abea-47e8-ba88-82202e3ee8ef" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EBE091B-C892-47B3-9F2A-5DA83D5D54B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03260FC4-D767-4067-AFD9-7FD8DA82EDB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="18390984-f7d9-4502-80ba-82ec344db5fb"/>
+    <ds:schemaRef ds:uri="629dd2dc-abea-47e8-ba88-82202e3ee8ef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30695,20 +30755,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03260FC4-D767-4067-AFD9-7FD8DA82EDB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EBE091B-C892-47B3-9F2A-5DA83D5D54B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="18390984-f7d9-4502-80ba-82ec344db5fb"/>
-    <ds:schemaRef ds:uri="629dd2dc-abea-47e8-ba88-82202e3ee8ef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>